--- a/Week 12/mappings.xlsx
+++ b/Week 12/mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt5\Downloads\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C591082C-BDAB-4545-8F9B-891BF4587DA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E9BA3-FEAA-428B-89DC-93E0A97FC354}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Matt</author>
+  </authors>
+  <commentList>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{8A66599D-582B-43E2-93E7-89C6C0139AF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maps the same as columns</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
@@ -361,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -380,6 +414,19 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -872,11 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1113,7 @@
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1089,7 +1136,7 @@
       <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1150,7 +1197,7 @@
       <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1303,5 +1350,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Week 12/mappings.xlsx
+++ b/Week 12/mappings.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26505"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt5\Downloads\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paullys/Desktop/research2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E9BA3-FEAA-428B-89DC-93E0A97FC354}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="26900" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mappings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Matt</author>
   </authors>
   <commentList>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{8A66599D-582B-43E2-93E7-89C6C0139AF5}">
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>[+++]</t>
   </si>
@@ -379,22 +381,25 @@
     <t>i</t>
   </si>
   <si>
-    <t xml:space="preserve">Impossible </t>
-  </si>
-  <si>
-    <t>Theroritically works, but fails</t>
-  </si>
-  <si>
     <t>Passes testing</t>
   </si>
   <si>
-    <t>Fails testing</t>
+    <t>Fails testing (No Significant Pattern)</t>
+  </si>
+  <si>
+    <t>Impossible (Significant Pattern)</t>
+  </si>
+  <si>
+    <t>Theroritically works, but fails testing</t>
+  </si>
+  <si>
+    <t>From the OSP.cs auto_gen script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,18 +435,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -452,12 +451,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
@@ -487,12 +480,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
@@ -507,6 +494,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -522,22 +533,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,21 +934,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
-    <col min="12" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
+    <col min="12" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -955,399 +970,406 @@
       <c r="G1">
         <v>321</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="6"/>
       <c r="K3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="7"/>
       <c r="K5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="8"/>
       <c r="K7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="14"/>
       <c r="K9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="4" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
